--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1360C07-CDCF-4D94-9A41-B3D019714163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971514CF-E88E-456A-9ED8-9C9F9F7D8226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -486,7 +486,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="2">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D3" s="2">
         <v>-1</v>

--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971514CF-E88E-456A-9ED8-9C9F9F7D8226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A164D0D4-DCDD-4B54-B1D3-68BB7857189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D4" s="2">
         <v>-1</v>

--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A164D0D4-DCDD-4B54-B1D3-68BB7857189A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20CA774-AC51-41AA-8DB0-B0F17CF344FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -429,13 +429,13 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -512,10 +512,10 @@
         <v>-1</v>
       </c>
       <c r="E4" s="2">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2">
         <v>10</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="D5" s="2">
         <v>-1</v>
@@ -535,7 +535,7 @@
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -546,16 +546,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>400</v>
+        <v>1500</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
       </c>
       <c r="E6" s="2">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2">
         <v>30</v>
-      </c>
-      <c r="F6" s="2">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C20CA774-AC51-41AA-8DB0-B0F17CF344FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E3CDB6-D52F-4D4A-93D4-7D38C976722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -71,6 +71,14 @@
   </si>
   <si>
     <t>ボス３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MinActionTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxActionTime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -426,19 +434,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +467,14 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -477,8 +493,14 @@
       <c r="F2" s="2">
         <v>5</v>
       </c>
+      <c r="G2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -497,8 +519,14 @@
       <c r="F3" s="2">
         <v>2</v>
       </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -517,8 +545,14 @@
       <c r="F4" s="2">
         <v>10</v>
       </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -537,8 +571,14 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
+      <c r="G5" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8" ht="18.75" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -556,6 +596,12 @@
       </c>
       <c r="F6" s="2">
         <v>30</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E3CDB6-D52F-4D4A-93D4-7D38C976722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE877BD9-DD78-4C14-ABDD-ED7A03D335D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE877BD9-DD78-4C14-ABDD-ED7A03D335D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C66711-B39D-4872-9DF0-4BE0C84651DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -592,7 +592,7 @@
         <v>-1</v>
       </c>
       <c r="E6" s="2">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>30</v>

--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C66711-B39D-4872-9DF0-4BE0C84651DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234D7837-7061-47E7-AFCA-0324BD7EAC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1290" yWindow="-15075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
@@ -28,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -74,11 +83,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MinActionTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MaxActionTime</t>
+    <t>ActionID[]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -149,11 +154,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -434,21 +440,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,10 +476,17 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -499,8 +511,15 @@
       <c r="H2" s="2">
         <v>-1</v>
       </c>
+      <c r="I2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+    <row r="3" spans="1:11" ht="18.75" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -520,13 +539,20 @@
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3" s="2">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>11</v>
+      </c>
+      <c r="J3" s="2">
+        <v>12</v>
+      </c>
+      <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    <row r="4" spans="1:11" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -546,13 +572,20 @@
         <v>10</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>3.5</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="18.75" customHeight="1">
+    <row r="5" spans="1:11" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -572,13 +605,20 @@
         <v>5</v>
       </c>
       <c r="G5" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H5" s="2">
-        <v>2.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>15</v>
+      </c>
+      <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:8" ht="18.75" customHeight="1">
+    <row r="6" spans="1:11" ht="18.75" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -598,11 +638,18 @@
         <v>30</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I6" s="2">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2">
+        <v>17</v>
+      </c>
+      <c r="K6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234D7837-7061-47E7-AFCA-0324BD7EAC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB892EA-8D51-4197-AADD-324717731531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="-15075" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="-14730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -84,6 +84,10 @@
   </si>
   <si>
     <t>ActionID[]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -440,20 +444,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1">
+    <row r="1" spans="1:12" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>11</v>
@@ -484,9 +489,12 @@
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="4"/>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75" customHeight="1">
+    <row r="2" spans="1:12" ht="18.75" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -517,9 +525,12 @@
       <c r="J2" s="2">
         <v>-1</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="K2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:11" ht="18.75" customHeight="1">
+    <row r="3" spans="1:12" ht="18.75" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -539,20 +550,23 @@
         <v>2</v>
       </c>
       <c r="G3" s="2">
+        <v>10</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>11</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>12</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" customHeight="1">
+    <row r="4" spans="1:12" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -572,20 +586,23 @@
         <v>10</v>
       </c>
       <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="2">
         <v>10</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>13</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>14</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="18.75" customHeight="1">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -605,20 +622,23 @@
         <v>5</v>
       </c>
       <c r="G5" s="2">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>15</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1">
+    <row r="6" spans="1:12" ht="18.75" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -638,18 +658,21 @@
         <v>30</v>
       </c>
       <c r="G6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="2">
         <v>10</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>16</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>17</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB892EA-8D51-4197-AADD-324717731531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F0A4E-FFCA-4AB2-B95B-12EA1B465F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="-14730" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7110" yWindow="-12675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterData" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -158,12 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -444,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -458,7 +457,7 @@
     <col min="8" max="12" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,9 +491,14 @@
       <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1">
+    <row r="2" spans="1:13" ht="18.75" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -528,9 +532,14 @@
       <c r="K2" s="2">
         <v>-1</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1">
+    <row r="3" spans="1:13" ht="18.75" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -559,14 +568,19 @@
         <v>1</v>
       </c>
       <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2">
         <v>11</v>
       </c>
-      <c r="K3" s="2">
+      <c r="M3" s="2">
         <v>12</v>
       </c>
-      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="18.75" customHeight="1">
+    <row r="4" spans="1:13" ht="18.75" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -600,9 +614,14 @@
       <c r="K4" s="2">
         <v>14</v>
       </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M4" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1">
+    <row r="5" spans="1:13" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -622,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -634,11 +653,16 @@
         <v>2</v>
       </c>
       <c r="K5" s="2">
+        <v>12</v>
+      </c>
+      <c r="L5" s="2">
         <v>15</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="M5" s="2">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -672,7 +696,12 @@
       <c r="K6" s="2">
         <v>17</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="2">
+        <v>-1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>-1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3F0A4E-FFCA-4AB2-B95B-12EA1B465F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826BCEB8-3634-493D-BA2C-134B91D6E9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7110" yWindow="-12675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -629,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>800</v>
+        <v>650</v>
       </c>
       <c r="D5" s="2">
         <v>-1</v>
@@ -670,13 +670,13 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
       </c>
       <c r="E6" s="2">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2">
         <v>30</v>

--- a/Assets/Resources/MasterData/CharacterData.xlsx
+++ b/Assets/Resources/MasterData/CharacterData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student2\Desktop\Unity\TeamProject2\Ceil_Project_N\Assets\Resources\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826BCEB8-3634-493D-BA2C-134B91D6E9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58309111-FE92-4A99-BCFF-C8CB71F2BBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7110" yWindow="-12675" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J11" sqref="J11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -670,7 +670,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D6" s="2">
         <v>-1</v>
